--- a/awm/doc/log/log_201608040123_zhanghongquan.xlsx
+++ b/awm/doc/log/log_201608040123_zhanghongquan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>周次</t>
   </si>
@@ -93,7 +93,67 @@
     <t>复习js</t>
   </si>
   <si>
+    <t>jdbc学习</t>
+  </si>
+  <si>
+    <t>查阅资料</t>
+  </si>
+  <si>
     <t>5.10号</t>
+  </si>
+  <si>
+    <t>视频学习jdbc</t>
+  </si>
+  <si>
+    <t>jdbc连接操作数据库</t>
+  </si>
+  <si>
+    <t xml:space="preserve">复习 </t>
+  </si>
+  <si>
+    <t>xml简单认识</t>
+  </si>
+  <si>
+    <t>学习xml</t>
+  </si>
+  <si>
+    <t>写xml</t>
+  </si>
+  <si>
+    <t>js bom</t>
+  </si>
+  <si>
+    <t>jsbom</t>
+  </si>
+  <si>
+    <t>写bom代码</t>
+  </si>
+  <si>
+    <t>js dom</t>
+  </si>
+  <si>
+    <t>写dom代码</t>
+  </si>
+  <si>
+    <t>注解学习</t>
+  </si>
+  <si>
+    <t>加深理解</t>
+  </si>
+  <si>
+    <t>第十一周</t>
+  </si>
+  <si>
+    <t>自定义注解</t>
+  </si>
+  <si>
+    <t>接口学习</t>
+  </si>
+  <si>
+    <t>写方法</t>
+  </si>
+  <si>
+    <t>插数据</t>
   </si>
 </sst>
 </file>
@@ -101,12 +161,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,9 +190,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,36 +272,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -189,36 +280,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -235,14 +296,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -281,6 +334,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -293,169 +448,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,11 +522,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,8 +540,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,6 +561,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -513,21 +590,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,162 +619,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -724,10 +777,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1080,7 +1133,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:E11"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1113,10 +1166,10 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" ht="40" customHeight="1" spans="1:12">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>4.29</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1129,18 +1182,18 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" ht="40" customHeight="1" spans="1:12">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>5.1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1153,18 +1206,18 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" ht="40" customHeight="1" spans="1:12">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>5.2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1177,18 +1230,18 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" ht="40" customHeight="1" spans="1:12">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>5.3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1201,18 +1254,18 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" ht="40" customHeight="1" spans="1:12">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>5.4</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1225,18 +1278,18 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" ht="40" customHeight="1" spans="1:12">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>5.5</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1249,18 +1302,18 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" ht="40" customHeight="1" spans="1:12">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>5.6</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1273,18 +1326,18 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" ht="40" customHeight="1" spans="1:12">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>5.7</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1297,18 +1350,18 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" ht="40" customHeight="1" spans="1:12">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>5.8</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1321,124 +1374,229 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" ht="40" customHeight="1" spans="1:12">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>5.9</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="I11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="I12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" ht="40" customHeight="1" spans="1:12">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>5.11</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" ht="40" customHeight="1" spans="1:12">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>5.12</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" ht="40" customHeight="1" spans="1:12">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>5.13</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="F15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" ht="40" customHeight="1" spans="1:12">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>5.14</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" ht="40" customHeight="1"/>
-    <row r="18" ht="40" customHeight="1"/>
-    <row r="19" ht="40" customHeight="1"/>
+      <c r="C16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" ht="40" customHeight="1" spans="1:12">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>5.15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" ht="40" customHeight="1" spans="1:12">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18">
+        <v>5.16</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" ht="40" customHeight="1" spans="1:12">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>5.17</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
     <row r="20" ht="40" customHeight="1"/>
     <row r="21" ht="40" customHeight="1"/>
     <row r="22" ht="40" customHeight="1"/>
@@ -1448,7 +1606,7 @@
     <row r="26" ht="40" customHeight="1"/>
     <row r="27" ht="40" customHeight="1"/>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="57">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:L1"/>
@@ -1497,6 +1655,15 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="I16:L16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/awm/doc/log/log_201608040123_zhanghongquan.xlsx
+++ b/awm/doc/log/log_201608040123_zhanghongquan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>周次</t>
   </si>
@@ -154,6 +154,21 @@
   </si>
   <si>
     <t>插数据</t>
+  </si>
+  <si>
+    <t>tomcat 学习</t>
+  </si>
+  <si>
+    <t>其他服务器了解</t>
+  </si>
+  <si>
+    <t>http协议学习</t>
+  </si>
+  <si>
+    <t>5.20号</t>
+  </si>
+  <si>
+    <t>Servlet学习</t>
   </si>
 </sst>
 </file>
@@ -161,10 +176,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -176,35 +191,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,10 +260,45 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,8 +318,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,68 +333,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -328,19 +343,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,31 +457,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,127 +517,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,78 +534,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -619,6 +562,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -627,145 +642,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1132,8 +1147,8 @@
   <sheetPr/>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1532,22 +1547,22 @@
       <c r="B17">
         <v>5.15</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3" t="s">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" ht="40" customHeight="1" spans="1:12">
       <c r="A18" t="s">
@@ -1556,22 +1571,22 @@
       <c r="B18">
         <v>5.16</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3" t="s">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" ht="40" customHeight="1" spans="1:12">
       <c r="A19" t="s">
@@ -1580,33 +1595,116 @@
       <c r="B19">
         <v>5.17</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3" t="s">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" ht="40" customHeight="1"/>
-    <row r="21" ht="40" customHeight="1"/>
-    <row r="22" ht="40" customHeight="1"/>
-    <row r="23" ht="40" customHeight="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" ht="40" customHeight="1" spans="1:12">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20">
+        <v>5.18</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" ht="40" customHeight="1" spans="1:12">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <v>5.19</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" ht="40" customHeight="1" spans="1:12">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" ht="40" customHeight="1" spans="1:12">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
     <row r="24" ht="40" customHeight="1"/>
     <row r="25" ht="40" customHeight="1"/>
     <row r="26" ht="40" customHeight="1"/>
     <row r="27" ht="40" customHeight="1"/>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="69">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:L1"/>
@@ -1664,6 +1762,18 @@
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="I19:L19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:L23"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/awm/doc/log/log_201608040123_zhanghongquan.xlsx
+++ b/awm/doc/log/log_201608040123_zhanghongquan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>周次</t>
   </si>
@@ -175,6 +175,33 @@
   </si>
   <si>
     <t>action业务控制器</t>
+  </si>
+  <si>
+    <t>hibernate学习</t>
+  </si>
+  <si>
+    <t>映射文件，配置文件</t>
+  </si>
+  <si>
+    <t>核心接口，持久化对象</t>
+  </si>
+  <si>
+    <t>编写PO</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>SessionFactory</t>
+  </si>
+  <si>
+    <t>第十三周</t>
+  </si>
+  <si>
+    <t>学习jQuery</t>
+  </si>
+  <si>
+    <t>初步学习</t>
   </si>
 </sst>
 </file>
@@ -182,15 +209,83 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -204,24 +299,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,15 +313,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,37 +338,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,38 +361,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,49 +376,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,127 +538,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,30 +567,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -578,36 +581,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,6 +613,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -648,10 +675,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,142 +687,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1148,10 +1178,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26:K26"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1646,88 +1676,188 @@
       <c r="A24" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2" t="s">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
     </row>
     <row r="25" ht="40" customHeight="1" spans="1:11">
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2" t="s">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
     </row>
     <row r="26" ht="40" customHeight="1" spans="1:11">
       <c r="A26" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2" t="s">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
     </row>
     <row r="27" ht="40" customHeight="1" spans="1:11">
       <c r="A27" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2" t="s">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-    </row>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" ht="38" customHeight="1" spans="1:11">
+      <c r="A28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" ht="38" customHeight="1" spans="1:11">
+      <c r="A29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" ht="38" customHeight="1" spans="1:11">
+      <c r="A30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" ht="38" customHeight="1" spans="1:11">
+      <c r="A31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" ht="38" customHeight="1"/>
+    <row r="33" ht="38" customHeight="1"/>
+    <row r="34" ht="38" customHeight="1"/>
+    <row r="35" ht="38" customHeight="1"/>
+    <row r="36" ht="38" customHeight="1"/>
+    <row r="37" ht="38" customHeight="1"/>
+    <row r="38" ht="38" customHeight="1"/>
+    <row r="39" ht="38" customHeight="1"/>
+    <row r="40" ht="38" customHeight="1"/>
+    <row r="41" ht="38" customHeight="1"/>
+    <row r="42" ht="38" customHeight="1"/>
+    <row r="43" ht="38" customHeight="1"/>
+    <row r="44" ht="38" customHeight="1"/>
+    <row r="45" ht="38" customHeight="1"/>
+    <row r="46" ht="38" customHeight="1"/>
+    <row r="47" ht="38" customHeight="1"/>
   </sheetData>
-  <mergeCells count="81">
+  <mergeCells count="93">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:K1"/>
@@ -1809,6 +1939,18 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="H27:K27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:K31"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/awm/doc/log/log_201608040123_zhanghongquan.xlsx
+++ b/awm/doc/log/log_201608040123_zhanghongquan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="22935" windowHeight="9810"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>周次</t>
   </si>
@@ -202,6 +202,24 @@
   </si>
   <si>
     <t>初步学习</t>
+  </si>
+  <si>
+    <t>了解jsp</t>
+  </si>
+  <si>
+    <t>学习jsp</t>
+  </si>
+  <si>
+    <t>学习MVC</t>
+  </si>
+  <si>
+    <t>dispatcherServlet配置</t>
+  </si>
+  <si>
+    <t>其他配置</t>
+  </si>
+  <si>
+    <t>其他学习</t>
   </si>
 </sst>
 </file>
@@ -209,9 +227,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -239,7 +257,99 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,76 +371,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,29 +384,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -382,181 +400,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,6 +585,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -594,13 +627,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,39 +653,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,145 +693,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1180,8 +1198,8 @@
   <sheetPr/>
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1760,89 +1778,149 @@
       <c r="A28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3" t="s">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3" t="s">
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
     </row>
     <row r="29" ht="38" customHeight="1" spans="1:11">
       <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3" t="s">
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
     </row>
     <row r="30" ht="38" customHeight="1" spans="1:11">
       <c r="A30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3" t="s">
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
     </row>
     <row r="31" ht="38" customHeight="1" spans="1:11">
       <c r="A31" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3" t="s">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3" t="s">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" ht="38" customHeight="1"/>
-    <row r="33" ht="38" customHeight="1"/>
-    <row r="34" ht="38" customHeight="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" ht="38" customHeight="1" spans="1:11">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" ht="38" customHeight="1" spans="1:11">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" ht="38" customHeight="1" spans="1:11">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
     <row r="35" ht="38" customHeight="1"/>
     <row r="36" ht="38" customHeight="1"/>
     <row r="37" ht="38" customHeight="1"/>
@@ -1857,7 +1935,7 @@
     <row r="46" ht="38" customHeight="1"/>
     <row r="47" ht="38" customHeight="1"/>
   </sheetData>
-  <mergeCells count="93">
+  <mergeCells count="102">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:K1"/>
@@ -1951,6 +2029,15 @@
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="E31:G31"/>
     <mergeCell ref="H31:K31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:K34"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/awm/doc/log/log_201608040123_zhanghongquan.xlsx
+++ b/awm/doc/log/log_201608040123_zhanghongquan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22935" windowHeight="9810"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t>周次</t>
   </si>
@@ -30,6 +30,9 @@
     <t>问题与后续计划</t>
   </si>
   <si>
+    <t>学习时间</t>
+  </si>
+  <si>
     <t>第八周</t>
   </si>
   <si>
@@ -42,12 +45,18 @@
     <t>复习</t>
   </si>
   <si>
+    <t>6:00-8:00</t>
+  </si>
+  <si>
     <t>第九周</t>
   </si>
   <si>
     <t>制作网页</t>
   </si>
   <si>
+    <t>6:30-8:30</t>
+  </si>
+  <si>
     <t>学习css</t>
   </si>
   <si>
@@ -57,6 +66,12 @@
     <t>美化网页</t>
   </si>
   <si>
+    <t>5:00-7:00</t>
+  </si>
+  <si>
+    <t>7：30-9:30</t>
+  </si>
+  <si>
     <t>学习js</t>
   </si>
   <si>
@@ -66,9 +81,15 @@
     <t>运行代码</t>
   </si>
   <si>
+    <t>7：00-9:00</t>
+  </si>
+  <si>
     <t>学习一些函数</t>
   </si>
   <si>
+    <t>5:30-7:30</t>
+  </si>
+  <si>
     <t>学习SQL</t>
   </si>
   <si>
@@ -81,6 +102,9 @@
     <t>操作数据库</t>
   </si>
   <si>
+    <t>7:35-9:35</t>
+  </si>
+  <si>
     <t>第十周</t>
   </si>
   <si>
@@ -90,6 +114,9 @@
     <t>复习js</t>
   </si>
   <si>
+    <t>5:45-8:00</t>
+  </si>
+  <si>
     <t>jdbc学习</t>
   </si>
   <si>
@@ -213,6 +240,12 @@
     <t>学习MVC</t>
   </si>
   <si>
+    <t>5:45-7:45</t>
+  </si>
+  <si>
+    <t>简单配置</t>
+  </si>
+  <si>
     <t>dispatcherServlet配置</t>
   </si>
   <si>
@@ -220,6 +253,36 @@
   </si>
   <si>
     <t>其他学习</t>
+  </si>
+  <si>
+    <t>查资料</t>
+  </si>
+  <si>
+    <t>第十四周</t>
+  </si>
+  <si>
+    <t>看javaee书籍</t>
+  </si>
+  <si>
+    <t>查漏补缺</t>
+  </si>
+  <si>
+    <t>写代码</t>
+  </si>
+  <si>
+    <t>8:30-10:30</t>
+  </si>
+  <si>
+    <t>学习总结</t>
+  </si>
+  <si>
+    <t>做小组任务</t>
+  </si>
+  <si>
+    <t>7:30-9:30</t>
+  </si>
+  <si>
+    <t>做课堂任务</t>
   </si>
 </sst>
 </file>
@@ -227,10 +290,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -243,82 +306,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,6 +328,56 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -355,21 +392,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -384,6 +423,30 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -400,181 +463,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,21 +648,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -618,15 +666,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -638,6 +677,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,15 +710,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -685,6 +724,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -693,10 +756,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,133 +768,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1196,18 +1259,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34:K34"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13:N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:11">
+    <row r="1" ht="39" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1227,817 +1290,1214 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-    </row>
-    <row r="2" ht="40" customHeight="1" spans="1:11">
+      <c r="L1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" ht="40" customHeight="1" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" ht="40" customHeight="1" spans="1:11">
+      <c r="L2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" ht="40" customHeight="1" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" ht="40" customHeight="1" spans="1:11">
+      <c r="L3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" ht="40" customHeight="1" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" ht="40" customHeight="1" spans="1:11">
+      <c r="L4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" ht="40" customHeight="1" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" ht="40" customHeight="1" spans="1:11">
+      <c r="L5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" ht="40" customHeight="1" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" ht="40" customHeight="1" spans="1:11">
+      <c r="L6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" ht="40" customHeight="1" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" ht="40" customHeight="1" spans="1:11">
+      <c r="L7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" ht="40" customHeight="1" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" ht="40" customHeight="1" spans="1:11">
+      <c r="L8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" ht="40" customHeight="1" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" ht="40" customHeight="1" spans="1:11">
+      <c r="L9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" ht="40" customHeight="1" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" ht="40" customHeight="1" spans="1:11">
+      <c r="L10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" ht="40" customHeight="1" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" ht="40" customHeight="1" spans="1:11">
+      <c r="L11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" ht="40" customHeight="1" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-    </row>
-    <row r="13" ht="40" customHeight="1" spans="1:11">
+      <c r="L12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" ht="40" customHeight="1" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" ht="40" customHeight="1" spans="1:11">
+      <c r="L13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" ht="40" customHeight="1" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-    </row>
-    <row r="15" ht="40" customHeight="1" spans="1:11">
+      <c r="L14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" ht="40" customHeight="1" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-    </row>
-    <row r="16" ht="40" customHeight="1" spans="1:11">
+      <c r="L15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" ht="40" customHeight="1" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-    </row>
-    <row r="17" ht="40" customHeight="1" spans="1:11">
+      <c r="L16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" ht="40" customHeight="1" spans="1:14">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-    </row>
-    <row r="18" ht="40" customHeight="1" spans="1:11">
+      <c r="L17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" ht="40" customHeight="1" spans="1:14">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-    </row>
-    <row r="19" ht="40" customHeight="1" spans="1:11">
+      <c r="L18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" ht="40" customHeight="1" spans="1:14">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-    </row>
-    <row r="20" ht="40" customHeight="1" spans="1:11">
+      <c r="L19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" ht="40" customHeight="1" spans="1:14">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-    </row>
-    <row r="21" ht="40" customHeight="1" spans="1:11">
+      <c r="L20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" ht="40" customHeight="1" spans="1:14">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-    </row>
-    <row r="22" ht="40" customHeight="1" spans="1:11">
+      <c r="L21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" ht="40" customHeight="1" spans="1:14">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-    </row>
-    <row r="23" ht="40" customHeight="1" spans="1:11">
+      <c r="L22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" ht="40" customHeight="1" spans="1:14">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-    </row>
-    <row r="24" ht="40" customHeight="1" spans="1:11">
+      <c r="L23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" ht="40" customHeight="1" spans="1:14">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-    </row>
-    <row r="25" ht="40" customHeight="1" spans="1:11">
+      <c r="L24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" ht="40" customHeight="1" spans="1:14">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-    </row>
-    <row r="26" ht="40" customHeight="1" spans="1:11">
+      <c r="L25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" ht="40" customHeight="1" spans="1:14">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-    </row>
-    <row r="27" ht="40" customHeight="1" spans="1:11">
+      <c r="L26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" ht="40" customHeight="1" spans="1:14">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-    </row>
-    <row r="28" ht="38" customHeight="1" spans="1:11">
+      <c r="L27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" ht="38" customHeight="1" spans="1:14">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-    </row>
-    <row r="29" ht="38" customHeight="1" spans="1:11">
+      <c r="L28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" ht="38" customHeight="1" spans="1:14">
       <c r="A29" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-    </row>
-    <row r="30" ht="38" customHeight="1" spans="1:11">
+      <c r="L29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" ht="38" customHeight="1" spans="1:14">
       <c r="A30" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-    </row>
-    <row r="31" ht="38" customHeight="1" spans="1:11">
+      <c r="L30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" ht="38" customHeight="1" spans="1:14">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-    </row>
-    <row r="32" ht="38" customHeight="1" spans="1:11">
+      <c r="L31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" ht="38" customHeight="1" spans="1:14">
       <c r="A32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" ht="38" customHeight="1" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" ht="38" customHeight="1" spans="1:14">
       <c r="A33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" ht="38" customHeight="1" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" ht="38" customHeight="1" spans="1:14">
       <c r="A34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" ht="38" customHeight="1"/>
-    <row r="36" ht="38" customHeight="1"/>
-    <row r="37" ht="38" customHeight="1"/>
-    <row r="38" ht="38" customHeight="1"/>
-    <row r="39" ht="38" customHeight="1"/>
-    <row r="40" ht="38" customHeight="1"/>
-    <row r="41" ht="38" customHeight="1"/>
+        <v>68</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" ht="38" customHeight="1" spans="1:14">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" ht="38" customHeight="1" spans="1:14">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" ht="38" customHeight="1" spans="1:14">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" ht="38" customHeight="1" spans="1:14">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" ht="38" customHeight="1" spans="1:14">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" ht="38" customHeight="1" spans="1:14">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" ht="38" customHeight="1" spans="2:14">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+    </row>
     <row r="42" ht="38" customHeight="1"/>
     <row r="43" ht="38" customHeight="1"/>
     <row r="44" ht="38" customHeight="1"/>
     <row r="45" ht="38" customHeight="1"/>
     <row r="46" ht="38" customHeight="1"/>
     <row r="47" ht="38" customHeight="1"/>
+    <row r="48" ht="38" customHeight="1"/>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="164">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:N1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:N2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:N4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:N5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:N6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:N7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:N8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:N9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:N10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:N11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:N12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:N13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:N14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:N15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:N16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:N17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:N18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:N19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:N20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:N21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:N22"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:N23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:N24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:N25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:N26"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="E28:G28"/>
     <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:N28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:N29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:N30"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="E31:G31"/>
     <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:N31"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="E32:G32"/>
     <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:N32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:N33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:N41"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2054,7 +2514,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2071,7 +2531,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/awm/doc/log/log_201608040123_zhanghongquan.xlsx
+++ b/awm/doc/log/log_201608040123_zhanghongquan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
   <si>
     <t>周次</t>
   </si>
@@ -283,6 +283,27 @@
   </si>
   <si>
     <t>做课堂任务</t>
+  </si>
+  <si>
+    <t>第十五周</t>
+  </si>
+  <si>
+    <t>学习ext.js</t>
+  </si>
+  <si>
+    <t>7:00-9:00</t>
+  </si>
+  <si>
+    <t>Tomcat出错</t>
+  </si>
+  <si>
+    <t>调试</t>
+  </si>
+  <si>
+    <t>调试出网页</t>
+  </si>
+  <si>
+    <t>7：00-9：00</t>
   </si>
 </sst>
 </file>
@@ -290,10 +311,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -305,7 +326,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,35 +395,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,8 +416,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,30 +447,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -424,27 +455,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -457,187 +478,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,6 +669,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -681,11 +711,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,23 +764,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,10 +777,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -768,133 +789,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1259,10 +1280,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:N13"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41:N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1290,11 +1311,11 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" ht="40" customHeight="1" spans="1:14">
       <c r="A2" s="1" t="s">
@@ -1316,11 +1337,11 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
     <row r="3" ht="40" customHeight="1" spans="1:14">
       <c r="A3" s="1" t="s">
@@ -1342,11 +1363,11 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" ht="40" customHeight="1" spans="1:14">
       <c r="A4" s="1" t="s">
@@ -1368,11 +1389,11 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" ht="40" customHeight="1" spans="1:14">
       <c r="A5" s="1" t="s">
@@ -1394,11 +1415,11 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
     </row>
     <row r="6" ht="40" customHeight="1" spans="1:14">
       <c r="A6" s="1" t="s">
@@ -1420,11 +1441,11 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
     </row>
     <row r="7" ht="40" customHeight="1" spans="1:14">
       <c r="A7" s="1" t="s">
@@ -1446,11 +1467,11 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
     </row>
     <row r="8" ht="40" customHeight="1" spans="1:14">
       <c r="A8" s="1" t="s">
@@ -1472,11 +1493,11 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
     </row>
     <row r="9" ht="40" customHeight="1" spans="1:14">
       <c r="A9" s="1" t="s">
@@ -1498,11 +1519,11 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
     </row>
     <row r="10" ht="40" customHeight="1" spans="1:14">
       <c r="A10" s="1" t="s">
@@ -1524,11 +1545,11 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
     </row>
     <row r="11" ht="40" customHeight="1" spans="1:14">
       <c r="A11" s="1" t="s">
@@ -1550,11 +1571,11 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:14">
       <c r="A12" s="1" t="s">
@@ -1576,11 +1597,11 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
     </row>
     <row r="13" ht="40" customHeight="1" spans="1:14">
       <c r="A13" s="1" t="s">
@@ -1602,11 +1623,11 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
     </row>
     <row r="14" ht="40" customHeight="1" spans="1:14">
       <c r="A14" s="1" t="s">
@@ -1628,11 +1649,11 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
     </row>
     <row r="15" ht="40" customHeight="1" spans="1:14">
       <c r="A15" s="1" t="s">
@@ -1654,11 +1675,11 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
     </row>
     <row r="16" ht="40" customHeight="1" spans="1:14">
       <c r="A16" s="1" t="s">
@@ -1680,11 +1701,11 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
     </row>
     <row r="17" ht="40" customHeight="1" spans="1:14">
       <c r="A17" t="s">
@@ -1706,11 +1727,11 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
     </row>
     <row r="18" ht="40" customHeight="1" spans="1:14">
       <c r="A18" t="s">
@@ -1732,11 +1753,11 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
     </row>
     <row r="19" ht="40" customHeight="1" spans="1:14">
       <c r="A19" t="s">
@@ -1758,11 +1779,11 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
     </row>
     <row r="20" ht="40" customHeight="1" spans="1:14">
       <c r="A20" t="s">
@@ -1784,11 +1805,11 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
     </row>
     <row r="21" ht="40" customHeight="1" spans="1:14">
       <c r="A21" t="s">
@@ -1810,11 +1831,11 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
     </row>
     <row r="22" ht="40" customHeight="1" spans="1:14">
       <c r="A22" t="s">
@@ -1836,11 +1857,11 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
     </row>
     <row r="23" ht="40" customHeight="1" spans="1:14">
       <c r="A23" t="s">
@@ -1862,11 +1883,11 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
     </row>
     <row r="24" ht="40" customHeight="1" spans="1:14">
       <c r="A24" t="s">
@@ -1888,11 +1909,11 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
     </row>
     <row r="25" ht="40" customHeight="1" spans="1:14">
       <c r="A25" t="s">
@@ -1914,11 +1935,11 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
     </row>
     <row r="26" ht="40" customHeight="1" spans="1:14">
       <c r="A26" t="s">
@@ -1940,11 +1961,11 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
     </row>
     <row r="27" ht="40" customHeight="1" spans="1:14">
       <c r="A27" t="s">
@@ -1966,11 +1987,11 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
     </row>
     <row r="28" ht="38" customHeight="1" spans="1:14">
       <c r="A28" s="2" t="s">
@@ -1992,11 +2013,11 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
     </row>
     <row r="29" ht="38" customHeight="1" spans="1:14">
       <c r="A29" s="2" t="s">
@@ -2018,11 +2039,11 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
     </row>
     <row r="30" ht="38" customHeight="1" spans="1:14">
       <c r="A30" s="2" t="s">
@@ -2044,11 +2065,11 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
     </row>
     <row r="31" ht="38" customHeight="1" spans="1:14">
       <c r="A31" s="2" t="s">
@@ -2070,11 +2091,11 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
     </row>
     <row r="32" ht="38" customHeight="1" spans="1:14">
       <c r="A32" t="s">
@@ -2096,11 +2117,11 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
     </row>
     <row r="33" ht="38" customHeight="1" spans="1:14">
       <c r="A33" t="s">
@@ -2122,11 +2143,11 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="3" t="s">
+      <c r="L33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
     </row>
     <row r="34" ht="38" customHeight="1" spans="1:14">
       <c r="A34" t="s">
@@ -2148,11 +2169,11 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="3" t="s">
+      <c r="L34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
     </row>
     <row r="35" ht="38" customHeight="1" spans="1:14">
       <c r="A35" t="s">
@@ -2174,166 +2195,278 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="3" t="s">
+      <c r="L35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
     </row>
     <row r="36" ht="38" customHeight="1" spans="1:14">
       <c r="A36" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3" t="s">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3" t="s">
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3" t="s">
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
     </row>
     <row r="37" ht="38" customHeight="1" spans="1:14">
       <c r="A37" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3" t="s">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3" t="s">
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3" t="s">
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
     </row>
     <row r="38" ht="38" customHeight="1" spans="1:14">
       <c r="A38" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3" t="s">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3" t="s">
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3" t="s">
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
     </row>
     <row r="39" ht="38" customHeight="1" spans="1:14">
       <c r="A39" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3" t="s">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3" t="s">
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3" t="s">
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
     </row>
     <row r="40" ht="38" customHeight="1" spans="1:14">
       <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3" t="s">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3" t="s">
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3" t="s">
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-    </row>
-    <row r="41" ht="38" customHeight="1" spans="2:14">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" ht="38" customHeight="1"/>
-    <row r="43" ht="38" customHeight="1"/>
-    <row r="44" ht="38" customHeight="1"/>
-    <row r="45" ht="38" customHeight="1"/>
-    <row r="46" ht="38" customHeight="1"/>
-    <row r="47" ht="38" customHeight="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" ht="38" customHeight="1" spans="1:14">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" ht="38" customHeight="1" spans="1:15">
+      <c r="A42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" ht="38" customHeight="1" spans="2:15">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" ht="38" customHeight="1" spans="2:15">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" ht="38" customHeight="1" spans="2:15">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" ht="38" customHeight="1" spans="2:15">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" ht="38" customHeight="1" spans="2:15">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+    </row>
     <row r="48" ht="38" customHeight="1"/>
   </sheetData>
-  <mergeCells count="164">
+  <mergeCells count="188">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:K1"/>
@@ -2498,6 +2631,30 @@
     <mergeCell ref="E41:G41"/>
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:N41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:O47"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/awm/doc/log/log_201608040123_zhanghongquan.xlsx
+++ b/awm/doc/log/log_201608040123_zhanghongquan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
   <si>
     <t>周次</t>
   </si>
@@ -304,6 +304,24 @@
   </si>
   <si>
     <t>7：00-9：00</t>
+  </si>
+  <si>
+    <t>第十六周   学习Jenkins</t>
+  </si>
+  <si>
+    <t>学习Jenkins</t>
+  </si>
+  <si>
+    <t>jira</t>
+  </si>
+  <si>
+    <t>1:00-4:30</t>
+  </si>
+  <si>
+    <t>考虑立项</t>
+  </si>
+  <si>
+    <t>jira Jenkins</t>
   </si>
 </sst>
 </file>
@@ -311,8 +329,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -332,18 +350,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -356,7 +374,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,11 +387,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -385,14 +409,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -401,8 +417,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,10 +434,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -432,10 +449,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -447,9 +473,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,13 +486,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -478,19 +496,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,163 +628,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,15 +687,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -692,6 +701,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,7 +754,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,21 +770,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -769,6 +778,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -777,10 +795,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -789,137 +807,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -928,9 +946,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1282,8 +1297,8 @@
   <sheetPr/>
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41:N41"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47:N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2361,108 +2376,136 @@
       <c r="A42" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3" t="s">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3" t="s">
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
       <c r="L42" s="1" t="s">
         <v>95</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" ht="38" customHeight="1" spans="2:15">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" ht="38" customHeight="1" spans="2:15">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" ht="38" customHeight="1" spans="1:15">
+      <c r="A43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" ht="38" customHeight="1" spans="1:15">
+      <c r="A44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
     </row>
     <row r="45" ht="38" customHeight="1" spans="2:15">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
     </row>
     <row r="46" ht="38" customHeight="1" spans="2:15">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
     </row>
     <row r="47" ht="38" customHeight="1" spans="2:15">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
     </row>
     <row r="48" ht="38" customHeight="1"/>
   </sheetData>
@@ -2638,23 +2681,23 @@
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="E43:G43"/>
     <mergeCell ref="H43:K43"/>
-    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="L43:N43"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="E44:G44"/>
     <mergeCell ref="H44:K44"/>
-    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L44:N44"/>
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="E45:G45"/>
     <mergeCell ref="H45:K45"/>
-    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L45:N45"/>
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="E46:G46"/>
     <mergeCell ref="H46:K46"/>
-    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="L46:N46"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="E47:G47"/>
     <mergeCell ref="H47:K47"/>
-    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L47:N47"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/awm/doc/log/log_201608040123_zhanghongquan.xlsx
+++ b/awm/doc/log/log_201608040123_zhanghongquan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
   <si>
     <t>周次</t>
   </si>
@@ -321,7 +321,19 @@
     <t>考虑立项</t>
   </si>
   <si>
-    <t>jira Jenkins</t>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第十六周   </t>
+  </si>
+  <si>
+    <t>需求说明书</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jira </t>
+  </si>
+  <si>
+    <t>第十六周</t>
   </si>
 </sst>
 </file>
@@ -329,10 +341,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -344,21 +356,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -366,15 +363,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,7 +384,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,6 +410,14 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -433,6 +445,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -450,14 +469,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -466,13 +477,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -486,6 +490,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -496,18 +508,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -520,31 +670,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,127 +682,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,17 +717,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,6 +748,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,36 +780,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,10 +807,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -807,19 +819,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -828,112 +840,112 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1298,7 +1310,7 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47:N47"/>
+      <selection activeCell="H45" sqref="H45:K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2453,14 +2465,23 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" ht="38" customHeight="1" spans="2:15">
-      <c r="B45" s="1"/>
+    <row r="45" ht="38" customHeight="1" spans="1:15">
+      <c r="A45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -2471,7 +2492,10 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" ht="38" customHeight="1" spans="2:15">
+    <row r="46" ht="38" customHeight="1" spans="1:15">
+      <c r="A46" t="s">
+        <v>105</v>
+      </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2489,7 +2513,10 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" ht="38" customHeight="1" spans="2:15">
+    <row r="47" ht="38" customHeight="1" spans="1:15">
+      <c r="A47" t="s">
+        <v>105</v>
+      </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>

--- a/awm/doc/log/log_201608040123_zhanghongquan.xlsx
+++ b/awm/doc/log/log_201608040123_zhanghongquan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
   <si>
     <t>周次</t>
   </si>
@@ -333,7 +333,22 @@
     <t xml:space="preserve">jira </t>
   </si>
   <si>
-    <t>第十六周</t>
+    <t>第十八周</t>
+  </si>
+  <si>
+    <t>写文档</t>
+  </si>
+  <si>
+    <t>修改文档</t>
+  </si>
+  <si>
+    <t>写注释</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>修改</t>
   </si>
 </sst>
 </file>
@@ -341,10 +356,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -370,13 +385,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -392,14 +400,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,11 +421,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -429,9 +437,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,11 +467,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -478,7 +485,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,14 +513,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -508,187 +523,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,6 +714,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -713,17 +743,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,6 +780,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -775,30 +814,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -807,149 +822,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -958,6 +973,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1310,7 +1328,7 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45:K45"/>
+      <selection activeCell="B48" sqref="B48:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2496,13 +2514,19 @@
       <c r="A46" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="H46" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -2517,13 +2541,19 @@
       <c r="A47" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="H47" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -2534,9 +2564,28 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" ht="38" customHeight="1"/>
+    <row r="48" ht="38" customHeight="1" spans="1:14">
+      <c r="A48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="188">
+  <mergeCells count="192">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:K1"/>
@@ -2725,6 +2774,10 @@
     <mergeCell ref="E47:G47"/>
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:N47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:N48"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
